--- a/config_6.15/permission_server_config.xlsx
+++ b/config_6.15/permission_server_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -6534,7 +6534,7 @@
     <t>新人限时福利（冲金鸡）</t>
   </si>
   <si>
-    <t>actp_rank_zqdw_019_fqdr_rank</t>
+    <t>actp_rank_fqjkh_020_yxbd_rank</t>
   </si>
   <si>
     <t>游戏达人</t>
@@ -8966,10 +8966,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -9042,21 +9042,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -9065,8 +9050,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9079,9 +9088,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9095,11 +9110,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9119,15 +9134,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9142,34 +9172,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -9178,10 +9180,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="48">
@@ -9313,6 +9313,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -9325,7 +9349,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9337,31 +9361,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9379,13 +9379,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9397,13 +9391,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9415,19 +9409,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9445,7 +9427,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9463,7 +9445,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9517,6 +9517,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -9533,11 +9548,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9560,15 +9573,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -9584,17 +9588,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9604,10 +9604,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9616,91 +9616,91 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9709,43 +9709,43 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -10380,7 +10380,7 @@
   <sheetPr/>
   <dimension ref="A1:Q505"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A475" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A498" sqref="A498"/>
@@ -15488,12 +15488,12 @@
   <sheetPr/>
   <dimension ref="A1:O406"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D378" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="G357" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G406" sqref="G406"/>
+      <selection pane="bottomRight" activeCell="L377" sqref="L377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -28072,7 +28072,7 @@
         <v>1621296000</v>
       </c>
       <c r="L372" s="98">
-        <v>44354</v>
+        <v>44371</v>
       </c>
     </row>
     <row r="373" s="52" customFormat="1" spans="1:12">

--- a/config_6.15/permission_server_config.xlsx
+++ b/config_6.15/permission_server_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5500" uniqueCount="2059">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5500" uniqueCount="2058">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -8704,9 +8704,6 @@
     <t>是IOS用户</t>
   </si>
   <si>
-    <t>tag_plat_own_tthlby</t>
-  </si>
-  <si>
     <t>天天欢乐捕鱼没有账号</t>
   </si>
   <si>
@@ -8966,10 +8963,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -9042,17 +9039,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9067,29 +9055,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9097,14 +9070,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9118,23 +9083,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9148,8 +9098,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9157,7 +9108,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9173,7 +9132,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9313,19 +9310,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9337,7 +9334,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9355,91 +9370,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9457,13 +9394,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9501,60 +9498,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -9579,11 +9522,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9604,10 +9601,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9619,88 +9616,88 @@
     <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9709,40 +9706,40 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
@@ -15488,8 +15485,8 @@
   <sheetPr/>
   <dimension ref="A1:O406"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G357" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="G375" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -29222,12 +29219,12 @@
   <sheetPr/>
   <dimension ref="A1:I1092"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C1064" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C1055" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B1092" sqref="B1092"/>
+      <selection pane="bottomRight" activeCell="D1076" sqref="D1076"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -54762,7 +54759,7 @@
         <v>1643</v>
       </c>
       <c r="D1070" s="10" t="s">
-        <v>1988</v>
+        <v>1820</v>
       </c>
       <c r="E1070" s="21">
         <v>5</v>
@@ -54771,7 +54768,7 @@
         <v>1</v>
       </c>
       <c r="G1070" s="21" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="1071" spans="1:7">
@@ -54831,7 +54828,7 @@
         <v>1643</v>
       </c>
       <c r="D1073" s="10" t="s">
-        <v>1988</v>
+        <v>1820</v>
       </c>
       <c r="E1073" s="21">
         <v>5</v>
@@ -54840,7 +54837,7 @@
         <v>1</v>
       </c>
       <c r="G1073" s="21" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="1074" spans="1:7">
@@ -54909,7 +54906,7 @@
         <v>1</v>
       </c>
       <c r="G1076" s="21" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="1077" spans="1:7">
@@ -54932,7 +54929,7 @@
         <v>2</v>
       </c>
       <c r="G1077" s="21" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="1078" spans="1:7">
@@ -55003,7 +55000,7 @@
         <v>1</v>
       </c>
       <c r="G1080" s="44" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="H1080" s="21"/>
       <c r="I1080" s="21"/>
@@ -55028,7 +55025,7 @@
         <v>1</v>
       </c>
       <c r="G1081" s="44" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="1082" spans="1:7">
@@ -55074,7 +55071,7 @@
         <v>1</v>
       </c>
       <c r="G1083" s="44" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="1084" spans="1:7">
@@ -55097,7 +55094,7 @@
         <v>1</v>
       </c>
       <c r="G1084" s="44" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="1085" spans="1:7">
@@ -55120,7 +55117,7 @@
         <v>1</v>
       </c>
       <c r="G1085" s="48" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="1086" spans="1:7">
@@ -55134,7 +55131,7 @@
         <v>1675</v>
       </c>
       <c r="D1086" s="11" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="E1086" s="21">
         <v>5</v>
@@ -55143,7 +55140,7 @@
         <v>1</v>
       </c>
       <c r="G1086" s="21" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="1087" spans="1:7">
@@ -55166,7 +55163,7 @@
         <v>1</v>
       </c>
       <c r="G1087" s="21" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="1088" spans="1:7">
@@ -55189,7 +55186,7 @@
         <v>1</v>
       </c>
       <c r="G1088" s="21" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="1089" spans="1:7">
@@ -55212,7 +55209,7 @@
         <v>1</v>
       </c>
       <c r="G1089" s="21" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="1090" spans="1:7">
@@ -55235,7 +55232,7 @@
         <v>1</v>
       </c>
       <c r="G1090" s="21" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="1091" customFormat="1" spans="1:9">
@@ -55274,16 +55271,16 @@
         <v>1731</v>
       </c>
       <c r="D1092" s="21" t="s">
+        <v>2001</v>
+      </c>
+      <c r="E1092" s="21">
+        <v>2</v>
+      </c>
+      <c r="F1092" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1092" s="21" t="s">
         <v>2002</v>
-      </c>
-      <c r="E1092" s="21">
-        <v>2</v>
-      </c>
-      <c r="F1092" s="21">
-        <v>1</v>
-      </c>
-      <c r="G1092" s="21" t="s">
-        <v>2003</v>
       </c>
       <c r="H1092" s="21"/>
       <c r="I1092" s="21"/>
@@ -55320,7 +55317,7 @@
         <v>818</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1636</v>
@@ -55335,7 +55332,7 @@
         <v>1639</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -55349,16 +55346,16 @@
         <v>1731</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>2005</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>2006</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>2007</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -55372,16 +55369,16 @@
         <v>1731</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>2007</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>2008</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>2009</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -55395,16 +55392,16 @@
         <v>1731</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>2009</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>2010</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>2011</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -55418,16 +55415,16 @@
         <v>1731</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>2011</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>2012</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>2013</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -55441,16 +55438,16 @@
         <v>1731</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>2014</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>2015</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -55464,16 +55461,16 @@
         <v>1731</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>2015</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>2016</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>2017</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -55487,16 +55484,16 @@
         <v>1731</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>2017</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>2018</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>2019</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -55510,16 +55507,16 @@
         <v>1731</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>2019</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>2020</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>2021</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -55533,7 +55530,7 @@
         <v>1731</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -55542,7 +55539,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -55556,7 +55553,7 @@
         <v>1731</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -55565,7 +55562,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -55579,16 +55576,16 @@
         <v>1731</v>
       </c>
       <c r="D12" s="10" t="s">
+        <v>2023</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>2024</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>2025</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -55602,16 +55599,16 @@
         <v>1731</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>2025</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>2026</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>2027</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -55625,16 +55622,16 @@
         <v>1731</v>
       </c>
       <c r="D14" s="10" t="s">
+        <v>2027</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>2028</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>2029</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -55648,7 +55645,7 @@
         <v>1731</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -55657,7 +55654,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -55671,16 +55668,16 @@
         <v>1731</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>2030</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>2031</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>2032</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -55694,16 +55691,16 @@
         <v>1731</v>
       </c>
       <c r="D17" s="10" t="s">
+        <v>2032</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>2033</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>2034</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -55711,22 +55708,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>1731</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>2034</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>2035</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>2036</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -55740,16 +55737,16 @@
         <v>1731</v>
       </c>
       <c r="D19" s="10" t="s">
+        <v>2036</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>2037</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>2038</v>
       </c>
     </row>
   </sheetData>
@@ -55777,13 +55774,13 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27" customHeight="1" spans="1:11">
       <c r="A1" s="2" t="s">
+        <v>2038</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2039</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2040</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2041</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -55799,10 +55796,10 @@
         <v>1656</v>
       </c>
       <c r="B2" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>2042</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2043</v>
       </c>
     </row>
     <row r="3" ht="28.9" customHeight="1" spans="1:2">
@@ -55810,7 +55807,7 @@
         <v>1673</v>
       </c>
       <c r="B3" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="4" ht="22.15" customHeight="1" spans="1:2">
@@ -55818,7 +55815,7 @@
         <v>1671</v>
       </c>
       <c r="B4" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="5" ht="24.6" customHeight="1" spans="1:2">
@@ -55826,15 +55823,15 @@
         <v>1692</v>
       </c>
       <c r="B5" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="6" ht="25.15" customHeight="1" spans="1:2">
       <c r="A6" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B6" t="s">
         <v>2047</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2048</v>
       </c>
     </row>
     <row r="7" ht="104.25" customHeight="1" spans="1:2">
@@ -55842,7 +55839,7 @@
         <v>1643</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -55850,15 +55847,15 @@
         <v>1731</v>
       </c>
       <c r="B8" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:2">
       <c r="A9" s="5" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>2051</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>2052</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:3">
@@ -55866,10 +55863,10 @@
         <v>1680</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>2052</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>2053</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>2054</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -55877,7 +55874,7 @@
         <v>1770</v>
       </c>
       <c r="B11" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -55885,10 +55882,10 @@
         <v>1775</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>2055</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>2056</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>2057</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -55896,7 +55893,7 @@
         <v>1773</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
     </row>
   </sheetData>
